--- a/Knowledge/07_Hibernate_Overview_20201122.xlsx
+++ b/Knowledge/07_Hibernate_Overview_20201122.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Update history</t>
   </si>
@@ -183,6 +183,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Hibernate là 1 ORM (Object Relation Mapping) Framework cho phép ng</t>
     </r>
     <r>
@@ -799,6 +804,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Thành ph</t>
     </r>
     <r>
@@ -844,25 +854,956 @@
     <t>Configuration</t>
   </si>
   <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n cho file c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u hình, file thu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c tính đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c yêu c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i Hibernate</t>
+    </r>
+  </si>
+  <si>
     <t>Session Factory</t>
   </si>
   <si>
+    <r>
+      <t>Là đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thread safe và đu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> thread c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a app. M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i database s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t Session Factory</t>
+    </r>
+  </si>
+  <si>
     <t>Session</t>
   </si>
   <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c dùng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t connection v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i database</t>
+    </r>
+  </si>
+  <si>
     <t>Transaction</t>
   </si>
   <si>
+    <r>
+      <t>Là đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n cho m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n làm vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i database</t>
+    </r>
+  </si>
+  <si>
     <t>Query</t>
   </si>
   <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c dùng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>y d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> CSDL và t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>o đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng cách dùng chu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i SQL/HQL (Hibernate Query Language)</t>
+    </r>
+  </si>
+  <si>
     <t>Criteria</t>
   </si>
   <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c dùng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>o và th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c thi các truy v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n theo tiêu chí h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ướ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> truy xu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
     <t>Mối liên hệ với thành phần khác</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>1. JDBC: cho phép Hibernate h</t>
     </r>
     <r>
@@ -1188,11 +2129,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,11 +2203,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -1322,20 +2258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1343,7 +2265,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1357,16 +2310,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,75 +2377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1470,8 +2392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1537,7 +2460,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,7 +2580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,13 +2592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,19 +2610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,103 +2622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +2640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,35 +2906,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2034,8 +2933,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2051,6 +2950,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2072,167 +2997,165 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2327,50 +3250,47 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="37" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2431,7 +3351,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
@@ -2452,17 +3372,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2851,138 +3771,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="75"/>
-    <col min="2" max="2" width="5" style="75" customWidth="1"/>
-    <col min="3" max="3" width="13" style="75" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="75" customWidth="1"/>
-    <col min="5" max="8" width="11.3796296296296" style="75" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="9" style="74"/>
+    <col min="2" max="2" width="5" style="74" customWidth="1"/>
+    <col min="3" max="3" width="13" style="74" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="74" customWidth="1"/>
+    <col min="5" max="8" width="11.3796296296296" style="74" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.8" spans="2:2">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.15"/>
     <row r="3" spans="2:8">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="78" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="80">
+      <c r="B4" s="79">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="85">
+      <c r="B5" s="84">
         <f t="shared" ref="B5:B10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="85">
+      <c r="B6" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="88"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="85">
+      <c r="B7" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="89"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="85">
+      <c r="B8" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="85">
+      <c r="B9" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" ht="15.15" spans="2:8">
-      <c r="B10" s="94">
+      <c r="B10" s="93">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3000,299 +3920,311 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="40" customWidth="1"/>
-    <col min="2" max="2" width="25" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.1296296296296" style="42" customWidth="1"/>
-    <col min="4" max="4" width="121.25" style="42" customWidth="1"/>
-    <col min="5" max="5" width="9" style="43"/>
-    <col min="6" max="8" width="9" style="42"/>
-    <col min="9" max="9" width="9" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="4.75" style="39" customWidth="1"/>
+    <col min="2" max="2" width="25" style="40" customWidth="1"/>
+    <col min="3" max="3" width="22.1296296296296" style="41" customWidth="1"/>
+    <col min="4" max="4" width="121.25" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9" style="42"/>
+    <col min="6" max="8" width="9" style="41"/>
+    <col min="9" max="9" width="9" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.8" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-    </row>
-    <row r="3" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A3" s="53">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" s="39" customFormat="1" ht="83.25" customHeight="1" spans="1:6">
-      <c r="A4" s="53">
+      <c r="D3" s="55"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" s="38" customFormat="1" ht="83.25" customHeight="1" spans="1:6">
+      <c r="A4" s="52">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="134" customHeight="1" spans="1:6">
-      <c r="A5" s="53">
+      <c r="D4" s="55"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" s="38" customFormat="1" ht="134" customHeight="1" spans="1:6">
+      <c r="A5" s="52">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" s="39" customFormat="1" ht="200.25" customHeight="1" spans="1:6">
-      <c r="A6" s="53">
+      <c r="D5" s="54"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="58"/>
+    </row>
+    <row r="6" s="38" customFormat="1" ht="200.25" customHeight="1" spans="1:6">
+      <c r="A6" s="52">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" s="39" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="61">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" s="38" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="60">
         <v>6</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-    </row>
-    <row r="9" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="55" t="s">
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="11" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="56" t="s">
+      <c r="D9" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-    </row>
-    <row r="12" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="56" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="55" t="s">
+      <c r="D10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" s="39" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A14" s="53">
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" s="38" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A14" s="52">
         <v>7</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A15" s="53">
+      <c r="B14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A15" s="52">
         <v>8</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="B15" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:6">
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:6">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" ht="14.4" spans="1:6">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" ht="14.4" spans="1:6">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" ht="14.4" spans="1:6">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" ht="14.4" spans="1:6">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" ht="14.4" spans="1:6">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" ht="14.4" spans="1:6">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
     </row>
     <row r="24" ht="14.4" spans="1:6">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" ht="14.4" spans="1:6">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" ht="14.4" spans="1:6">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" ht="14.4" spans="1:6">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="73"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3343,7 +4275,7 @@
   <sheetData>
     <row r="1" ht="22.8" spans="2:3">
       <c r="B1" s="25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -3353,22 +4285,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="45.6" spans="2:8">
@@ -3377,19 +4309,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="33"/>
+      <c r="G4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="30">
@@ -3398,85 +4330,85 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="33"/>
+        <v>54</v>
+      </c>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" ht="34.2" spans="2:8">
       <c r="B6" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>49</v>
+      <c r="C6" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="33"/>
+        <v>58</v>
+      </c>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="20"/>
       <c r="E7" s="16"/>
       <c r="F7" s="31"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="20"/>
       <c r="E8" s="16"/>
       <c r="F8" s="31"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="20"/>
       <c r="E9" s="16"/>
       <c r="F9" s="31"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="2:8">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="C10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3525,7 +4457,7 @@
     <row r="1" ht="22.8" spans="1:9">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3552,25 +4484,25 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J3" s="22"/>
     </row>
@@ -3581,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>

--- a/Knowledge/07_Hibernate_Overview_20201122.xlsx
+++ b/Knowledge/07_Hibernate_Overview_20201122.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="_History" sheetId="1" r:id="rId1"/>
     <sheet name="Overview" sheetId="3" r:id="rId2"/>
     <sheet name="Details" sheetId="5" r:id="rId3"/>
     <sheet name="Ver.差分" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AAAA">#REF!</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Update history</t>
   </si>
@@ -855,6 +856,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Đ</t>
     </r>
     <r>
@@ -975,6 +981,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Là đ</t>
     </r>
     <r>
@@ -1191,6 +1202,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Đ</t>
     </r>
     <r>
@@ -1279,6 +1295,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Là đ</t>
     </r>
     <r>
@@ -1415,6 +1436,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Đ</t>
     </r>
     <r>
@@ -1599,6 +1625,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Đ</t>
     </r>
     <r>
@@ -2121,6 +2152,45 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Phân biệt Repo và Dao</t>
+  </si>
+  <si>
+    <t>Map class + attribute bằng file .properties</t>
+  </si>
+  <si>
+    <t>Các ý cần nhớ</t>
+  </si>
+  <si>
+    <t>Expected:</t>
+  </si>
+  <si>
+    <t>Cách chạy prj</t>
+  </si>
+  <si>
+    <t>Tạo được service</t>
+  </si>
+  <si>
+    <t>Save trong DB</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>load balance, docker, hibernate</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>crawl data</t>
   </si>
 </sst>
 </file>
@@ -2129,8 +2199,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="43">
@@ -2265,7 +2335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2273,7 +2343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2294,8 +2364,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2310,13 +2387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2326,29 +2396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2361,11 +2409,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2377,8 +2446,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2466,7 +2536,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2478,67 +2674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,97 +2710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,26 +2976,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2935,21 +2996,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2981,16 +3027,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3003,155 +3058,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3920,7 +3990,7 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
@@ -4536,4 +4606,91 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Knowledge/07_Hibernate_Overview_20201122.xlsx
+++ b/Knowledge/07_Hibernate_Overview_20201122.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\Knowledge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222173F1-5175-4807-B4B9-488D61B33CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_History" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <definedName name="qqqq">#REF!</definedName>
     <definedName name="RFIC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>Update history</t>
   </si>
@@ -75,7 +81,7 @@
         <b/>
         <sz val="16"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ơ</t>
     </r>
@@ -111,7 +117,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -140,7 +146,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -169,7 +175,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -195,7 +201,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ườ</t>
     </r>
@@ -211,7 +217,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ậ</t>
     </r>
@@ -227,7 +233,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -243,7 +249,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -259,7 +265,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ỗ</t>
     </r>
@@ -275,7 +281,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ợ</t>
     </r>
@@ -291,7 +297,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ự</t>
     </r>
@@ -307,7 +313,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -323,7 +329,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -339,7 +345,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ậ</t>
     </r>
@@ -355,7 +361,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ướ</t>
     </r>
@@ -371,7 +377,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ố</t>
     </r>
@@ -387,7 +393,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -403,7 +409,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -419,7 +425,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -436,7 +442,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ữ</t>
     </r>
@@ -452,7 +458,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ườ</t>
     </r>
@@ -468,7 +474,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ậ</t>
     </r>
@@ -484,7 +490,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ế</t>
     </r>
@@ -500,7 +506,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -516,7 +522,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ế</t>
     </r>
@@ -532,7 +538,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -549,7 +555,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ể</t>
     </r>
@@ -565,7 +571,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ế</t>
     </r>
@@ -581,7 +587,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -597,7 +603,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ạ</t>
     </r>
@@ -613,7 +619,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ạ</t>
     </r>
@@ -629,7 +635,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -645,7 +651,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ọ</t>
     </r>
@@ -661,7 +667,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ữ</t>
     </r>
@@ -677,7 +683,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -693,7 +699,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ừ</t>
     </r>
@@ -709,7 +715,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -726,7 +732,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ầ</t>
     </r>
@@ -742,7 +748,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ủ</t>
     </r>
@@ -758,7 +764,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ồ</t>
     </r>
@@ -790,7 +796,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -816,7 +822,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ầ</t>
     </r>
@@ -832,7 +838,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ể</t>
     </r>
@@ -867,7 +873,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ạ</t>
     </r>
@@ -883,7 +889,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -899,7 +905,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ấ</t>
     </r>
@@ -915,7 +921,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ộ</t>
     </r>
@@ -931,7 +937,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -947,7 +953,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ầ</t>
     </r>
@@ -963,7 +969,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ở</t>
     </r>
@@ -992,7 +998,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ố</t>
     </r>
@@ -1008,7 +1014,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1024,7 +1030,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ọ</t>
     </r>
@@ -1040,7 +1046,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ử</t>
     </r>
@@ -1056,7 +1062,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ụ</t>
     </r>
@@ -1072,7 +1078,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ở</t>
     </r>
@@ -1088,7 +1094,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ấ</t>
     </r>
@@ -1104,7 +1110,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ả</t>
     </r>
@@ -1120,7 +1126,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ủ</t>
     </r>
@@ -1136,7 +1142,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ỗ</t>
     </r>
@@ -1152,7 +1158,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ử</t>
     </r>
@@ -1168,7 +1174,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ụ</t>
     </r>
@@ -1184,7 +1190,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ộ</t>
     </r>
@@ -1213,7 +1219,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1229,7 +1235,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ể</t>
     </r>
@@ -1245,7 +1251,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ậ</t>
     </r>
@@ -1261,7 +1267,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ộ</t>
     </r>
@@ -1277,7 +1283,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -1306,7 +1312,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ơ</t>
     </r>
@@ -1322,7 +1328,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ị</t>
     </r>
@@ -1338,7 +1344,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ạ</t>
     </r>
@@ -1354,7 +1360,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -1370,7 +1376,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ộ</t>
     </r>
@@ -1386,7 +1392,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ầ</t>
     </r>
@@ -1402,7 +1408,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -1418,7 +1424,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -1447,7 +1453,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1463,7 +1469,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ể</t>
     </r>
@@ -1479,7 +1485,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ấ</t>
     </r>
@@ -1495,7 +1501,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ữ</t>
     </r>
@@ -1511,7 +1517,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ệ</t>
     </r>
@@ -1527,7 +1533,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ừ</t>
     </r>
@@ -1543,7 +1549,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ạ</t>
     </r>
@@ -1559,7 +1565,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ố</t>
     </r>
@@ -1575,7 +1581,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1591,7 +1597,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ằ</t>
     </r>
@@ -1607,7 +1613,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ỗ</t>
     </r>
@@ -1636,7 +1642,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1652,7 +1658,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ể</t>
     </r>
@@ -1668,7 +1674,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ạ</t>
     </r>
@@ -1684,7 +1690,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ự</t>
     </r>
@@ -1700,7 +1706,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ấ</t>
     </r>
@@ -1716,7 +1722,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ướ</t>
     </r>
@@ -1732,7 +1738,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ố</t>
     </r>
@@ -1748,7 +1754,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1764,7 +1770,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ể</t>
     </r>
@@ -1780,7 +1786,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ấ</t>
     </r>
@@ -1796,7 +1802,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ố</t>
     </r>
@@ -1812,7 +1818,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1841,7 +1847,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ỗ</t>
     </r>
@@ -1857,7 +1863,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ợ</t>
     </r>
@@ -1874,7 +1880,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ượ</t>
     </r>
@@ -1890,7 +1896,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ợ</t>
     </r>
@@ -1906,7 +1912,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="128"/>
+        <family val="1"/>
       </rPr>
       <t>ớ</t>
     </r>
@@ -1940,7 +1946,7 @@
         <b/>
         <sz val="16"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -1988,36 +1994,36 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợng tham gia</t>
+    </r>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
         <charset val="134"/>
       </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ợng tham gia</t>
-    </r>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Meiryo UI"/>
-        <charset val="134"/>
-      </rPr>
       <t>Tên flow đối t</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -2051,7 +2057,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -2089,7 +2095,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -2125,7 +2131,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ư</t>
     </r>
@@ -2191,23 +2197,52 @@
   </si>
   <si>
     <t>crawl data</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ession</t>
+    </r>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Session session = em.unwrap(Session.class);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Trong đó, em là entity manager:
+@Autowired
+private final EntityManager em;</t>
+    </r>
+    <phoneticPr fontId="25"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2274,7 +2309,7 @@
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2286,7 +2321,7 @@
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2302,8 +2337,8 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2329,156 +2364,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2488,10 +2387,29 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2506,7 +2424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,194 +2446,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2975,471 +2707,220 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="104">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="98">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3512,64 +2993,51 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="Normal 3" xfId="37"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="44" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3827,178 +3295,172 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="74"/>
-    <col min="2" max="2" width="5" style="74" customWidth="1"/>
-    <col min="3" max="3" width="13" style="74" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="74" customWidth="1"/>
-    <col min="5" max="8" width="11.3796296296296" style="74" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="74"/>
+    <col min="1" max="1" width="9" style="70"/>
+    <col min="2" max="2" width="5" style="70" customWidth="1"/>
+    <col min="3" max="3" width="13" style="70" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="70" customWidth="1"/>
+    <col min="5" max="8" width="11.375" style="70" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="2:2">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.15"/>
-    <row r="3" spans="2:8">
-      <c r="B3" s="76" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="79">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="75">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="79" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="84">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="80">
         <f t="shared" ref="B5:B10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="84">
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="80">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="88"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="84">
+      <c r="C6" s="81"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="80">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="84">
+      <c r="C7" s="81"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="80">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="84">
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="80">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-    </row>
-    <row r="10" ht="15.15" spans="2:8">
-      <c r="B10" s="93">
+      <c r="C9" s="81"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="89">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="25"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:G10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"○, ,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.75" style="39" customWidth="1"/>
     <col min="2" max="2" width="25" style="40" customWidth="1"/>
-    <col min="3" max="3" width="22.1296296296296" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="41" customWidth="1"/>
     <col min="4" max="4" width="121.25" style="41" customWidth="1"/>
     <col min="5" max="5" width="9" style="42"/>
     <col min="6" max="8" width="9" style="41"/>
@@ -4006,7 +3468,7 @@
     <col min="10" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="1:6">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
@@ -4016,341 +3478,338 @@
       <c r="E1" s="46"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" s="38" customFormat="1" ht="14.4" spans="1:6">
+    <row r="2" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A3" s="52">
+      <c r="D2" s="94"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4" s="38" customFormat="1" ht="83.25" customHeight="1" spans="1:6">
-      <c r="A4" s="52">
+      <c r="D3" s="96"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" s="38" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-    </row>
-    <row r="5" s="38" customFormat="1" ht="134" customHeight="1" spans="1:6">
-      <c r="A5" s="52">
+      <c r="D4" s="96"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" s="38" customFormat="1" ht="134.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="6" s="38" customFormat="1" ht="200.25" customHeight="1" spans="1:6">
-      <c r="A6" s="52">
+      <c r="D5" s="95"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" s="38" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="58"/>
-    </row>
-    <row r="7" s="38" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="60">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98">
         <v>6</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="99"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-    </row>
-    <row r="9" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="99"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-    </row>
-    <row r="10" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="54" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="99"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-    </row>
-    <row r="11" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="55" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="99"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-    </row>
-    <row r="12" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="55" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="99"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-    </row>
-    <row r="13" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="54" t="s">
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" s="38" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A14" s="52">
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" s="38" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51">
         <v>7</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" s="38" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A15" s="52">
+      <c r="D14" s="96"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="51">
         <v>8</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" ht="14.4" spans="1:6">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-    </row>
-    <row r="17" ht="14.4" spans="1:6">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-    </row>
-    <row r="18" ht="14.4" spans="1:6">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-    </row>
-    <row r="19" ht="14.4" spans="1:6">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-    </row>
-    <row r="20" ht="14.4" spans="1:6">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-    </row>
-    <row r="21" ht="14.4" spans="1:6">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-    </row>
-    <row r="22" ht="14.4" spans="1:6">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-    </row>
-    <row r="23" ht="14.4" spans="1:6">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:6">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:6">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:6">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-    </row>
-    <row r="27" ht="14.4" spans="1:6">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="72"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
+  <phoneticPr fontId="25"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" display="https://www.tutorialspoint.com/hibernate/index.htm"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.1296296296296" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="24" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.6296296296296" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="24" customWidth="1"/>
     <col min="6" max="6" width="31" style="24" customWidth="1"/>
-    <col min="7" max="7" width="73.1296296296296" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.6296296296296" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.12962962962963" style="6"/>
+    <col min="7" max="7" width="73.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="2:3">
+    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" ht="15.15"/>
-    <row r="3" ht="15.15" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
@@ -4373,7 +3832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" ht="45.6" spans="2:8">
+    <row r="4" spans="2:8" ht="48" x14ac:dyDescent="0.4">
       <c r="B4" s="30">
         <f>ROW()-3</f>
         <v>1</v>
@@ -4393,9 +3852,9 @@
       </c>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="30">
-        <f t="shared" ref="B5:B9" si="0">ROW()-3</f>
+        <f t="shared" ref="B5:B10" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="20"/>
@@ -4411,7 +3870,7 @@
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" ht="34.2" spans="2:8">
+    <row r="6" spans="2:8" ht="36" x14ac:dyDescent="0.4">
       <c r="B6" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4431,19 +3890,27 @@
       </c>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="102" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="F7" s="31"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="G7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4455,7 +3922,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4467,64 +3934,73 @@
       <c r="G9" s="20"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="2:8">
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="25"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10">
-      <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E13" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"共通,Segment,Itinerary,Leg,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E53 F11:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E54 F12:F54" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"General,RQ,RS,Both,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:F146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55:F147" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"RQ,RS,Both,-"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.37962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.12962962962963" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.3796296296296" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.8" spans="1:9">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>60</v>
@@ -4537,7 +4013,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4548,7 +4024,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="13" t="s">
         <v>13</v>
@@ -4576,7 +4052,7 @@
       </c>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="15">
         <f>ROW()-3</f>
@@ -4597,100 +4073,97 @@
       <c r="J4" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="25"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>